--- a/experiments/execution-time/summary-tracker-test.xlsx
+++ b/experiments/execution-time/summary-tracker-test.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12570"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="summary-tracker-test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>instance</t>
   </si>
@@ -95,6 +94,15 @@
     <t>fn_modifier_change</t>
   </si>
   <si>
+    <t>tp_access_modifier_change</t>
+  </si>
+  <si>
+    <t>fp_access_modifier_change</t>
+  </si>
+  <si>
+    <t>fn_access_modifier_change</t>
+  </si>
+  <si>
     <t>tp_return_type_change</t>
   </si>
   <si>
@@ -140,13 +148,13 @@
     <t>fn_annotation_change</t>
   </si>
   <si>
-    <t>tp_method_move</t>
+    <t>tp_moved</t>
   </si>
   <si>
-    <t>fp_method_move</t>
+    <t>fp_moved</t>
   </si>
   <si>
-    <t>fn_method_move</t>
+    <t>fn_moved</t>
   </si>
   <si>
     <t>tp_all</t>
@@ -457,24 +465,15 @@
   <si>
     <t>spring-boot-project/spring-boot/src/main/java/org.springframework.boot.web.embedded.undertow.UndertowWebServer#getPortFromChannel(BoundChannel)</t>
   </si>
-  <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>Runtime</t>
-  </si>
-  <si>
-    <t>Tracker_test</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -495,33 +494,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,7 +524,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -541,9 +531,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,6 +546,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -564,45 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,9 +591,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,13 +638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,13 +662,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,97 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,25 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,13 +794,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,8 +835,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,11 +900,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,203 +929,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,7 +1262,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1287,9 +1286,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1313,7 +1312,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1366,7 +1365,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1391,7 +1390,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1403,15 +1402,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AU104"/>
+  <dimension ref="A1:AX103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102:C103"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,13 +1552,22 @@
       <c r="AU1" t="s">
         <v>46</v>
       </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>1007</v>
+        <v>1035</v>
       </c>
       <c r="C2">
         <v>26</v>
@@ -1661,17 +1669,17 @@
         <v>0</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
         <v>2</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
       <c r="AN2">
         <v>0</v>
       </c>
@@ -1688,21 +1696,30 @@
         <v>0</v>
       </c>
       <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>7</v>
       </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -1813,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -1822,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1831,21 +1848,30 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
         <v>9</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>4224</v>
+        <v>4513</v>
       </c>
       <c r="C4">
         <v>37</v>
@@ -1947,17 +1973,17 @@
         <v>0</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
         <v>2</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
       <c r="AN4">
         <v>0</v>
       </c>
@@ -1974,21 +2000,30 @@
         <v>0</v>
       </c>
       <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
         <v>7</v>
       </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:50">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -2063,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -2072,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -2090,17 +2125,17 @@
         <v>0</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
         <v>2</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
       <c r="AN5">
         <v>0</v>
       </c>
@@ -2117,21 +2152,30 @@
         <v>0</v>
       </c>
       <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
         <v>12</v>
       </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <v>1423</v>
+        <v>1493</v>
       </c>
       <c r="C6">
         <v>90</v>
@@ -2233,17 +2277,17 @@
         <v>0</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>3</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
       <c r="AN6">
         <v>0</v>
       </c>
@@ -2260,21 +2304,30 @@
         <v>0</v>
       </c>
       <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
         <v>16</v>
       </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:50">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="C7">
         <v>72</v>
@@ -2376,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -2385,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -2403,21 +2456,30 @@
         <v>0</v>
       </c>
       <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
         <v>6</v>
       </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B8">
-        <v>1320</v>
+        <v>1265</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -2519,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2528,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -2546,21 +2608,30 @@
         <v>0</v>
       </c>
       <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
         <v>2</v>
       </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:50">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -2662,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -2680,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2689,21 +2760,30 @@
         <v>0</v>
       </c>
       <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
         <v>9</v>
       </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="C10">
         <v>49</v>
@@ -2814,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -2823,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2832,21 +2912,30 @@
         <v>0</v>
       </c>
       <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
         <v>29</v>
       </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:50">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C11">
         <v>39</v>
@@ -2921,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2930,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2948,17 +3037,17 @@
         <v>0</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
         <v>2</v>
       </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
       <c r="AN11">
         <v>0</v>
       </c>
@@ -2975,21 +3064,30 @@
         <v>0</v>
       </c>
       <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
         <v>15</v>
       </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B12">
-        <v>7236</v>
+        <v>5891</v>
       </c>
       <c r="C12">
         <v>93</v>
@@ -3091,17 +3189,17 @@
         <v>0</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
         <v>7</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
       <c r="AN12">
         <v>0</v>
       </c>
@@ -3118,21 +3216,30 @@
         <v>0</v>
       </c>
       <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
         <v>18</v>
       </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:50">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13">
-        <v>3884</v>
+        <v>3638</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -3261,21 +3368,30 @@
         <v>0</v>
       </c>
       <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
         <v>5</v>
       </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14">
-        <v>10832</v>
+        <v>10912</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -3350,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3359,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -3404,21 +3520,30 @@
         <v>0</v>
       </c>
       <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
         <v>20</v>
       </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:50">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B15">
-        <v>4423</v>
+        <v>4399</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -3547,24 +3672,33 @@
         <v>0</v>
       </c>
       <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
         <v>5</v>
       </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:50">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B16">
-        <v>12172</v>
+        <v>7435</v>
       </c>
       <c r="C16">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3663,17 +3797,17 @@
         <v>0</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
         <v>2</v>
       </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
       <c r="AN16">
         <v>0</v>
       </c>
@@ -3690,21 +3824,30 @@
         <v>0</v>
       </c>
       <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
         <v>11</v>
       </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>5567</v>
+        <v>5590</v>
       </c>
       <c r="C17">
         <v>79</v>
@@ -3815,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17">
         <v>0</v>
@@ -3824,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -3833,21 +3976,30 @@
         <v>0</v>
       </c>
       <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
         <v>21</v>
       </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:50">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B18">
-        <v>11092</v>
+        <v>651</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3976,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -3984,13 +4136,22 @@
       <c r="AU18">
         <v>0</v>
       </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:50">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B19">
-        <v>3706</v>
+        <v>3646</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -4119,21 +4280,30 @@
         <v>0</v>
       </c>
       <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
         <v>5</v>
       </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:50">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B20">
-        <v>5753</v>
+        <v>5668</v>
       </c>
       <c r="C20">
         <v>95</v>
@@ -4235,17 +4405,17 @@
         <v>0</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
         <v>2</v>
       </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
       <c r="AN20">
         <v>0</v>
       </c>
@@ -4262,21 +4432,30 @@
         <v>0</v>
       </c>
       <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
         <v>22</v>
       </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:50">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B21">
-        <v>7884</v>
+        <v>8015</v>
       </c>
       <c r="C21">
         <v>26</v>
@@ -4351,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -4360,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -4369,17 +4548,17 @@
         <v>0</v>
       </c>
       <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>2</v>
       </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
@@ -4387,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
         <v>0</v>
@@ -4405,21 +4584,30 @@
         <v>0</v>
       </c>
       <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
         <v>13</v>
       </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:50">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22">
-        <v>8107</v>
+        <v>6668</v>
       </c>
       <c r="C22">
         <v>111</v>
@@ -4512,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -4521,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
         <v>0</v>
@@ -4548,21 +4736,30 @@
         <v>0</v>
       </c>
       <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
         <v>4</v>
       </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:50">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B23">
-        <v>4759</v>
+        <v>5555</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -4664,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -4673,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23">
         <v>0</v>
@@ -4682,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -4691,21 +4888,30 @@
         <v>0</v>
       </c>
       <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
         <v>5</v>
       </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:50">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B24">
-        <v>26013</v>
+        <v>26839</v>
       </c>
       <c r="C24">
         <v>29</v>
@@ -4807,17 +5013,17 @@
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
         <v>2</v>
       </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
       <c r="AN24">
         <v>0</v>
       </c>
@@ -4834,21 +5040,30 @@
         <v>0</v>
       </c>
       <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
         <v>12</v>
       </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:50">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25">
-        <v>9082</v>
+        <v>8609</v>
       </c>
       <c r="C25">
         <v>135</v>
@@ -4950,17 +5165,17 @@
         <v>0</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
         <v>5</v>
       </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
       <c r="AN25">
         <v>0</v>
       </c>
@@ -4977,21 +5192,30 @@
         <v>0</v>
       </c>
       <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
         <v>39</v>
       </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:50">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>7867</v>
+        <v>7542</v>
       </c>
       <c r="C26">
         <v>71</v>
@@ -5120,21 +5344,30 @@
         <v>0</v>
       </c>
       <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
         <v>5</v>
       </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:50">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B27">
-        <v>26582</v>
+        <v>28388</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -5263,21 +5496,30 @@
         <v>0</v>
       </c>
       <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
         <v>3</v>
       </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:50">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B28">
-        <v>2954</v>
+        <v>3049</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -5406,21 +5648,30 @@
         <v>0</v>
       </c>
       <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
         <v>5</v>
       </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:50">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B29">
-        <v>6734</v>
+        <v>6870</v>
       </c>
       <c r="C29">
         <v>49</v>
@@ -5522,17 +5773,17 @@
         <v>0</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
         <v>2</v>
       </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
       <c r="AN29">
         <v>0</v>
       </c>
@@ -5540,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -5549,21 +5800,30 @@
         <v>0</v>
       </c>
       <c r="AS29">
+        <v>1</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
         <v>12</v>
       </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:50">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30">
-        <v>17236</v>
+        <v>7386</v>
       </c>
       <c r="C30">
         <v>81</v>
@@ -5692,21 +5952,30 @@
         <v>0</v>
       </c>
       <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
         <v>5</v>
       </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:50">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B31">
-        <v>12225</v>
+        <v>11795</v>
       </c>
       <c r="C31">
         <v>102</v>
@@ -5808,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31">
         <v>0</v>
@@ -5817,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31">
         <v>0</v>
@@ -5826,30 +6095,39 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31">
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31">
+        <v>1</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>1</v>
+      </c>
+      <c r="AV31">
         <v>7</v>
       </c>
-      <c r="AT31">
-        <v>1</v>
-      </c>
-      <c r="AU31">
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:50">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B32">
-        <v>485</v>
+        <v>384</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -5978,21 +6256,30 @@
         <v>0</v>
       </c>
       <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
         <v>6</v>
       </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:50">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B33">
-        <v>2709</v>
+        <v>2556</v>
       </c>
       <c r="C33">
         <v>35</v>
@@ -6067,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -6076,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -6094,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AJ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -6103,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -6121,21 +6408,30 @@
         <v>0</v>
       </c>
       <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
         <v>13</v>
       </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:50">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B34">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C34">
         <v>16</v>
@@ -6237,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -6246,17 +6542,17 @@
         <v>0</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
         <v>2</v>
       </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
       <c r="AQ34">
         <v>0</v>
       </c>
@@ -6264,21 +6560,30 @@
         <v>0</v>
       </c>
       <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
         <v>8</v>
       </c>
-      <c r="AT34">
-        <v>0</v>
-      </c>
-      <c r="AU34">
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:50">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B35">
-        <v>2880</v>
+        <v>2978</v>
       </c>
       <c r="C35">
         <v>50</v>
@@ -6389,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="AM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35">
         <v>0</v>
@@ -6398,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0</v>
@@ -6407,21 +6712,30 @@
         <v>0</v>
       </c>
       <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
         <v>11</v>
       </c>
-      <c r="AT35">
-        <v>0</v>
-      </c>
-      <c r="AU35">
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:50">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B36">
-        <v>6462</v>
+        <v>8836</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -6550,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -6558,13 +6872,22 @@
       <c r="AU36">
         <v>0</v>
       </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:50">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C37">
         <v>30</v>
@@ -6639,17 +6962,17 @@
         <v>0</v>
       </c>
       <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
         <v>2</v>
       </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
       <c r="AE37">
         <v>0</v>
       </c>
@@ -6666,17 +6989,17 @@
         <v>0</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
         <v>2</v>
       </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
       <c r="AN37">
         <v>0</v>
       </c>
@@ -6693,24 +7016,33 @@
         <v>0</v>
       </c>
       <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
         <v>13</v>
       </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:50">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B38">
-        <v>1902</v>
+        <v>1851</v>
       </c>
       <c r="C38">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -6782,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -6791,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -6818,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="AM38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38">
         <v>0</v>
@@ -6827,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -6836,21 +7168,30 @@
         <v>0</v>
       </c>
       <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
         <v>8</v>
       </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:50">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B39">
-        <v>35889</v>
+        <v>38356</v>
       </c>
       <c r="C39">
         <v>37</v>
@@ -6979,54 +7320,63 @@
         <v>0</v>
       </c>
       <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
         <v>17</v>
       </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:50">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B40">
-        <v>3186</v>
+        <v>5136</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>4</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -7035,13 +7385,13 @@
         <v>16</v>
       </c>
       <c r="P40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -7053,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -7062,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -7086,26 +7436,26 @@
         <v>0</v>
       </c>
       <c r="AG40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40">
         <v>0</v>
       </c>
       <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
         <v>2</v>
       </c>
-      <c r="AK40">
-        <v>1</v>
-      </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
-      <c r="AM40">
-        <v>0</v>
-      </c>
       <c r="AN40">
         <v>0</v>
       </c>
@@ -7113,30 +7463,39 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR40">
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AT40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU40">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>28</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:50">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B41">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -7238,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="AJ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41">
         <v>0</v>
@@ -7247,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AM41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41">
         <v>0</v>
@@ -7265,21 +7624,30 @@
         <v>0</v>
       </c>
       <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
         <v>4</v>
       </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:50">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B42">
-        <v>9107</v>
+        <v>6311</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -7408,21 +7776,30 @@
         <v>0</v>
       </c>
       <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
         <v>5</v>
       </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AU42">
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:50">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B43">
-        <v>5984</v>
+        <v>5442</v>
       </c>
       <c r="C43">
         <v>15</v>
@@ -7551,21 +7928,30 @@
         <v>0</v>
       </c>
       <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
         <v>9</v>
       </c>
-      <c r="AT43">
-        <v>0</v>
-      </c>
-      <c r="AU43">
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:50">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44">
-        <v>17466</v>
+        <v>15812</v>
       </c>
       <c r="C44">
         <v>87</v>
@@ -7667,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44">
         <v>0</v>
@@ -7685,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -7694,21 +8080,30 @@
         <v>0</v>
       </c>
       <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
         <v>12</v>
       </c>
-      <c r="AT44">
-        <v>0</v>
-      </c>
-      <c r="AU44">
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:50">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B45">
-        <v>15773</v>
+        <v>14933</v>
       </c>
       <c r="C45">
         <v>15</v>
@@ -7837,21 +8232,30 @@
         <v>0</v>
       </c>
       <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
         <v>7</v>
       </c>
-      <c r="AT45">
-        <v>0</v>
-      </c>
-      <c r="AU45">
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:50">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46">
-        <v>11146</v>
+        <v>10757</v>
       </c>
       <c r="C46">
         <v>44</v>
@@ -7980,21 +8384,30 @@
         <v>0</v>
       </c>
       <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
         <v>5</v>
       </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:50">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B47">
-        <v>10053</v>
+        <v>9880</v>
       </c>
       <c r="C47">
         <v>29</v>
@@ -8069,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -8078,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -8096,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK47">
         <v>0</v>
@@ -8105,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -8123,21 +8536,30 @@
         <v>0</v>
       </c>
       <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
         <v>10</v>
       </c>
-      <c r="AT47">
-        <v>0</v>
-      </c>
-      <c r="AU47">
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:50">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B48">
-        <v>6109</v>
+        <v>6054</v>
       </c>
       <c r="C48">
         <v>20</v>
@@ -8266,21 +8688,30 @@
         <v>0</v>
       </c>
       <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
         <v>5</v>
       </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:50">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B49">
-        <v>18703</v>
+        <v>18399</v>
       </c>
       <c r="C49">
         <v>57</v>
@@ -8409,21 +8840,30 @@
         <v>0</v>
       </c>
       <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
         <v>7</v>
       </c>
-      <c r="AT49">
-        <v>0</v>
-      </c>
-      <c r="AU49">
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:50">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B50">
-        <v>7047</v>
+        <v>7032</v>
       </c>
       <c r="C50">
         <v>17</v>
@@ -8525,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="AJ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50">
         <v>0</v>
@@ -8534,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="AM50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -8552,21 +8992,30 @@
         <v>0</v>
       </c>
       <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
         <v>3</v>
       </c>
-      <c r="AT50">
-        <v>0</v>
-      </c>
-      <c r="AU50">
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:50">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B51">
-        <v>5778</v>
+        <v>5921</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -8686,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -8695,21 +9144,30 @@
         <v>0</v>
       </c>
       <c r="AS51">
+        <v>1</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
         <v>4</v>
       </c>
-      <c r="AT51">
-        <v>0</v>
-      </c>
-      <c r="AU51">
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:50">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B52">
-        <v>2427</v>
+        <v>470</v>
       </c>
       <c r="C52">
         <v>12</v>
@@ -8811,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="AJ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52">
         <v>0</v>
@@ -8820,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="AM52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN52">
         <v>0</v>
@@ -8838,21 +9296,30 @@
         <v>0</v>
       </c>
       <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
         <v>3</v>
       </c>
-      <c r="AT52">
-        <v>0</v>
-      </c>
-      <c r="AU52">
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:50">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B53">
-        <v>2394</v>
+        <v>2754</v>
       </c>
       <c r="C53">
         <v>31</v>
@@ -8963,17 +9430,17 @@
         <v>0</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
         <v>2</v>
       </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
       <c r="AQ53">
         <v>0</v>
       </c>
@@ -8981,21 +9448,30 @@
         <v>0</v>
       </c>
       <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
         <v>10</v>
       </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:50">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B54">
-        <v>8697</v>
+        <v>504</v>
       </c>
       <c r="C54">
         <v>14</v>
@@ -9124,21 +9600,30 @@
         <v>0</v>
       </c>
       <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
         <v>3</v>
       </c>
-      <c r="AT54">
-        <v>0</v>
-      </c>
-      <c r="AU54">
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:50">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B55">
-        <v>1888</v>
+        <v>1778</v>
       </c>
       <c r="C55">
         <v>53</v>
@@ -9240,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="AJ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK55">
         <v>0</v>
@@ -9249,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="AM55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN55">
         <v>0</v>
@@ -9267,21 +9752,30 @@
         <v>0</v>
       </c>
       <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
         <v>13</v>
       </c>
-      <c r="AT55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:50">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B56">
-        <v>1590</v>
+        <v>1712</v>
       </c>
       <c r="C56">
         <v>60</v>
@@ -9383,17 +9877,17 @@
         <v>0</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
         <v>2</v>
       </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
-        <v>0</v>
-      </c>
       <c r="AN56">
         <v>0</v>
       </c>
@@ -9410,21 +9904,30 @@
         <v>0</v>
       </c>
       <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
         <v>27</v>
       </c>
-      <c r="AT56">
-        <v>0</v>
-      </c>
-      <c r="AU56">
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:50">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B57">
-        <v>2545</v>
+        <v>2574</v>
       </c>
       <c r="C57">
         <v>43</v>
@@ -9526,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="AJ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK57">
         <v>0</v>
@@ -9535,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="AM57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN57">
         <v>0</v>
@@ -9553,21 +10056,30 @@
         <v>0</v>
       </c>
       <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
         <v>10</v>
       </c>
-      <c r="AT57">
-        <v>0</v>
-      </c>
-      <c r="AU57">
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:50">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B58">
-        <v>1706</v>
+        <v>1627</v>
       </c>
       <c r="C58">
         <v>73</v>
@@ -9696,21 +10208,30 @@
         <v>0</v>
       </c>
       <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
         <v>4</v>
       </c>
-      <c r="AT58">
-        <v>0</v>
-      </c>
-      <c r="AU58">
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:50">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B59">
-        <v>6037</v>
+        <v>6294</v>
       </c>
       <c r="C59">
         <v>15</v>
@@ -9821,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="AM59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -9830,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -9839,21 +10360,30 @@
         <v>0</v>
       </c>
       <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
         <v>6</v>
       </c>
-      <c r="AT59">
-        <v>0</v>
-      </c>
-      <c r="AU59">
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:50">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B60">
-        <v>4428</v>
+        <v>4550</v>
       </c>
       <c r="C60">
         <v>108</v>
@@ -9964,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="AM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -9973,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>0</v>
@@ -9982,21 +10512,30 @@
         <v>0</v>
       </c>
       <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
         <v>21</v>
       </c>
-      <c r="AT60">
-        <v>0</v>
-      </c>
-      <c r="AU60">
+      <c r="AW60">
+        <v>0</v>
+      </c>
+      <c r="AX60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:50">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B61">
-        <v>2984</v>
+        <v>2966</v>
       </c>
       <c r="C61">
         <v>85</v>
@@ -10098,17 +10637,17 @@
         <v>0</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
         <v>2</v>
       </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
-      <c r="AM61">
-        <v>0</v>
-      </c>
       <c r="AN61">
         <v>0</v>
       </c>
@@ -10125,21 +10664,30 @@
         <v>0</v>
       </c>
       <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
         <v>11</v>
       </c>
-      <c r="AT61">
-        <v>0</v>
-      </c>
-      <c r="AU61">
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:50">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B62">
-        <v>22527</v>
+        <v>22855</v>
       </c>
       <c r="C62">
         <v>86</v>
@@ -10268,21 +10816,30 @@
         <v>0</v>
       </c>
       <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
         <v>22</v>
       </c>
-      <c r="AT62">
-        <v>0</v>
-      </c>
-      <c r="AU62">
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:47">
+    <row r="63" spans="1:50">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B63">
-        <v>5967</v>
+        <v>6109</v>
       </c>
       <c r="C63">
         <v>57</v>
@@ -10411,21 +10968,30 @@
         <v>0</v>
       </c>
       <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
         <v>17</v>
       </c>
-      <c r="AT63">
-        <v>0</v>
-      </c>
-      <c r="AU63">
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:47">
+    <row r="64" spans="1:50">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B64">
-        <v>3257</v>
+        <v>3026</v>
       </c>
       <c r="C64">
         <v>89</v>
@@ -10536,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AM64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN64">
         <v>0</v>
@@ -10545,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>0</v>
@@ -10554,21 +11120,30 @@
         <v>0</v>
       </c>
       <c r="AS64">
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
         <v>11</v>
       </c>
-      <c r="AT64">
-        <v>0</v>
-      </c>
-      <c r="AU64">
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:50">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B65">
-        <v>3389</v>
+        <v>3347</v>
       </c>
       <c r="C65">
         <v>57</v>
@@ -10661,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="AG65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH65">
         <v>0</v>
@@ -10688,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>0</v>
@@ -10697,21 +11272,30 @@
         <v>0</v>
       </c>
       <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
         <v>26</v>
       </c>
-      <c r="AT65">
-        <v>0</v>
-      </c>
-      <c r="AU65">
+      <c r="AW65">
+        <v>0</v>
+      </c>
+      <c r="AX65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:50">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B66">
-        <v>53014</v>
+        <v>16794</v>
       </c>
       <c r="C66">
         <v>202</v>
@@ -10840,21 +11424,30 @@
         <v>0</v>
       </c>
       <c r="AS66">
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
         <v>10</v>
       </c>
-      <c r="AT66">
-        <v>0</v>
-      </c>
-      <c r="AU66">
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:50">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B67">
-        <v>80965</v>
+        <v>7877</v>
       </c>
       <c r="C67">
         <v>49</v>
@@ -10974,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67">
         <v>0</v>
@@ -10983,21 +11576,30 @@
         <v>0</v>
       </c>
       <c r="AS67">
+        <v>1</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
         <v>8</v>
       </c>
-      <c r="AT67">
-        <v>0</v>
-      </c>
-      <c r="AU67">
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:50">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B68">
-        <v>9420</v>
+        <v>8815</v>
       </c>
       <c r="C68">
         <v>235</v>
@@ -11099,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="AJ68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK68">
         <v>0</v>
@@ -11108,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="AM68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -11126,21 +11728,30 @@
         <v>0</v>
       </c>
       <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
         <v>11</v>
       </c>
-      <c r="AT68">
-        <v>0</v>
-      </c>
-      <c r="AU68">
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:50">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B69">
-        <v>9034</v>
+        <v>8797</v>
       </c>
       <c r="C69">
         <v>30</v>
@@ -11269,21 +11880,30 @@
         <v>0</v>
       </c>
       <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
         <v>4</v>
       </c>
-      <c r="AT69">
-        <v>0</v>
-      </c>
-      <c r="AU69">
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:50">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B70">
-        <v>5323</v>
+        <v>4975</v>
       </c>
       <c r="C70">
         <v>96</v>
@@ -11385,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="AJ70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK70">
         <v>0</v>
@@ -11394,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="AM70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN70">
         <v>0</v>
@@ -11403,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ70">
         <v>0</v>
@@ -11412,21 +12032,30 @@
         <v>0</v>
       </c>
       <c r="AS70">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
         <v>8</v>
       </c>
-      <c r="AT70">
-        <v>0</v>
-      </c>
-      <c r="AU70">
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:50">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B71">
-        <v>8507</v>
+        <v>9233</v>
       </c>
       <c r="C71">
         <v>61</v>
@@ -11555,21 +12184,30 @@
         <v>0</v>
       </c>
       <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
         <v>6</v>
       </c>
-      <c r="AT71">
-        <v>0</v>
-      </c>
-      <c r="AU71">
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:50">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B72">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="C72">
         <v>41</v>
@@ -11695,24 +12333,33 @@
         <v>0</v>
       </c>
       <c r="AR72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>1</v>
+      </c>
+      <c r="AV72">
         <v>6</v>
       </c>
-      <c r="AT72">
-        <v>1</v>
-      </c>
-      <c r="AU72">
+      <c r="AW72">
+        <v>1</v>
+      </c>
+      <c r="AX72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:50">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B73">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="C73">
         <v>41</v>
@@ -11814,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="AJ73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK73">
         <v>0</v>
@@ -11823,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AM73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN73">
         <v>0</v>
@@ -11838,24 +12485,33 @@
         <v>0</v>
       </c>
       <c r="AR73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>1</v>
+      </c>
+      <c r="AV73">
         <v>8</v>
       </c>
-      <c r="AT73">
-        <v>1</v>
-      </c>
-      <c r="AU73">
+      <c r="AW73">
+        <v>1</v>
+      </c>
+      <c r="AX73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:50">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B74">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C74">
         <v>47</v>
@@ -11930,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -11939,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE74">
         <v>0</v>
@@ -11984,21 +12640,30 @@
         <v>0</v>
       </c>
       <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
         <v>6</v>
       </c>
-      <c r="AT74">
-        <v>0</v>
-      </c>
-      <c r="AU74">
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:50">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B75">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C75">
         <v>44</v>
@@ -12073,17 +12738,17 @@
         <v>0</v>
       </c>
       <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
         <v>2</v>
       </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
       <c r="AE75">
         <v>0</v>
       </c>
@@ -12100,17 +12765,17 @@
         <v>0</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
         <v>4</v>
       </c>
-      <c r="AK75">
-        <v>0</v>
-      </c>
-      <c r="AL75">
-        <v>0</v>
-      </c>
-      <c r="AM75">
-        <v>0</v>
-      </c>
       <c r="AN75">
         <v>0</v>
       </c>
@@ -12127,164 +12792,182 @@
         <v>0</v>
       </c>
       <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+      <c r="AV75">
         <v>15</v>
       </c>
-      <c r="AT75">
-        <v>0</v>
-      </c>
-      <c r="AU75">
+      <c r="AW75">
+        <v>0</v>
+      </c>
+      <c r="AX75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:50">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B76">
-        <v>368</v>
+        <v>1681</v>
       </c>
       <c r="C76">
+        <v>41</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>21</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>14</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>6</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
+      <c r="AS76">
+        <v>1</v>
+      </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
+      <c r="AU76">
+        <v>0</v>
+      </c>
+      <c r="AV76">
         <v>31</v>
       </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76">
-        <v>16</v>
-      </c>
-      <c r="F76">
-        <v>7</v>
-      </c>
-      <c r="G76">
-        <v>5</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>9</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>5</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>2</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>1</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <v>1</v>
-      </c>
-      <c r="AD76">
-        <v>0</v>
-      </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-      <c r="AF76">
-        <v>0</v>
-      </c>
-      <c r="AG76">
-        <v>1</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-      <c r="AI76">
-        <v>1</v>
-      </c>
-      <c r="AJ76">
-        <v>4</v>
-      </c>
-      <c r="AK76">
-        <v>0</v>
-      </c>
-      <c r="AL76">
-        <v>2</v>
-      </c>
-      <c r="AM76">
-        <v>0</v>
-      </c>
-      <c r="AN76">
-        <v>0</v>
-      </c>
-      <c r="AO76">
-        <v>0</v>
-      </c>
-      <c r="AP76">
-        <v>0</v>
-      </c>
-      <c r="AQ76">
-        <v>0</v>
-      </c>
-      <c r="AR76">
-        <v>1</v>
-      </c>
-      <c r="AS76">
-        <v>16</v>
-      </c>
-      <c r="AT76">
-        <v>1</v>
-      </c>
-      <c r="AU76">
-        <v>15</v>
+      <c r="AW76">
+        <v>0</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:47">
+    <row r="77" spans="1:50">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B77">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -12413,21 +13096,30 @@
         <v>0</v>
       </c>
       <c r="AS77">
+        <v>0</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
         <v>4</v>
       </c>
-      <c r="AT77">
-        <v>0</v>
-      </c>
-      <c r="AU77">
+      <c r="AW77">
+        <v>0</v>
+      </c>
+      <c r="AX77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:50">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B78">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="C78">
         <v>15</v>
@@ -12538,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="AM78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN78">
         <v>0</v>
@@ -12547,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>0</v>
@@ -12556,18 +13248,27 @@
         <v>0</v>
       </c>
       <c r="AS78">
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <v>0</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
         <v>11</v>
       </c>
-      <c r="AT78">
-        <v>0</v>
-      </c>
-      <c r="AU78">
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:47">
+    <row r="79" spans="1:50">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B79">
         <v>90</v>
@@ -12699,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT79">
         <v>0</v>
@@ -12707,13 +13408,22 @@
       <c r="AU79">
         <v>0</v>
       </c>
+      <c r="AV79">
+        <v>1</v>
+      </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:47">
+    <row r="80" spans="1:50">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B80">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="C80">
         <v>28</v>
@@ -12788,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB80">
         <v>0</v>
@@ -12797,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE80">
         <v>0</v>
@@ -12824,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="AM80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN80">
         <v>0</v>
@@ -12833,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>0</v>
@@ -12842,21 +13552,30 @@
         <v>0</v>
       </c>
       <c r="AS80">
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
+      <c r="AV80">
         <v>8</v>
       </c>
-      <c r="AT80">
-        <v>0</v>
-      </c>
-      <c r="AU80">
+      <c r="AW80">
+        <v>0</v>
+      </c>
+      <c r="AX80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47">
+    <row r="81" spans="1:50">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B81">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C81">
         <v>10</v>
@@ -12958,17 +13677,17 @@
         <v>0</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
         <v>2</v>
       </c>
-      <c r="AK81">
-        <v>0</v>
-      </c>
-      <c r="AL81">
-        <v>0</v>
-      </c>
-      <c r="AM81">
-        <v>0</v>
-      </c>
       <c r="AN81">
         <v>0</v>
       </c>
@@ -12985,21 +13704,30 @@
         <v>0</v>
       </c>
       <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AV81">
         <v>7</v>
       </c>
-      <c r="AT81">
-        <v>0</v>
-      </c>
-      <c r="AU81">
+      <c r="AW81">
+        <v>0</v>
+      </c>
+      <c r="AX81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:47">
+    <row r="82" spans="1:50">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B82">
-        <v>1746</v>
+        <v>1378</v>
       </c>
       <c r="C82">
         <v>13</v>
@@ -13110,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="AM82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN82">
         <v>0</v>
@@ -13119,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>0</v>
@@ -13128,21 +13856,30 @@
         <v>0</v>
       </c>
       <c r="AS82">
+        <v>0</v>
+      </c>
+      <c r="AT82">
+        <v>0</v>
+      </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
+      <c r="AV82">
         <v>8</v>
       </c>
-      <c r="AT82">
-        <v>0</v>
-      </c>
-      <c r="AU82">
+      <c r="AW82">
+        <v>0</v>
+      </c>
+      <c r="AX82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:47">
+    <row r="83" spans="1:50">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B83">
-        <v>5641</v>
+        <v>5266</v>
       </c>
       <c r="C83">
         <v>25</v>
@@ -13253,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="AM83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN83">
         <v>0</v>
@@ -13262,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>0</v>
@@ -13271,21 +14008,30 @@
         <v>0</v>
       </c>
       <c r="AS83">
+        <v>0</v>
+      </c>
+      <c r="AT83">
+        <v>0</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
         <v>7</v>
       </c>
-      <c r="AT83">
-        <v>0</v>
-      </c>
-      <c r="AU83">
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:47">
+    <row r="84" spans="1:50">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B84">
-        <v>5395</v>
+        <v>5860</v>
       </c>
       <c r="C84">
         <v>149</v>
@@ -13396,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="AM84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN84">
         <v>0</v>
@@ -13405,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>0</v>
@@ -13414,21 +14160,30 @@
         <v>0</v>
       </c>
       <c r="AS84">
+        <v>0</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
+      <c r="AV84">
         <v>28</v>
       </c>
-      <c r="AT84">
-        <v>0</v>
-      </c>
-      <c r="AU84">
+      <c r="AW84">
+        <v>0</v>
+      </c>
+      <c r="AX84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:47">
+    <row r="85" spans="1:50">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B85">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="C85">
         <v>20</v>
@@ -13539,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="AM85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN85">
         <v>0</v>
@@ -13548,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>0</v>
@@ -13557,21 +14312,30 @@
         <v>0</v>
       </c>
       <c r="AS85">
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
         <v>10</v>
       </c>
-      <c r="AT85">
-        <v>0</v>
-      </c>
-      <c r="AU85">
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:47">
+    <row r="86" spans="1:50">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B86">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -13673,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="AJ86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK86">
         <v>0</v>
@@ -13682,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="AM86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN86">
         <v>0</v>
@@ -13691,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ86">
         <v>0</v>
@@ -13700,21 +14464,30 @@
         <v>0</v>
       </c>
       <c r="AS86">
+        <v>1</v>
+      </c>
+      <c r="AT86">
+        <v>0</v>
+      </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
+      <c r="AV86">
         <v>11</v>
       </c>
-      <c r="AT86">
-        <v>0</v>
-      </c>
-      <c r="AU86">
+      <c r="AW86">
+        <v>0</v>
+      </c>
+      <c r="AX86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:47">
+    <row r="87" spans="1:50">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87">
-        <v>5659</v>
+        <v>1671</v>
       </c>
       <c r="C87">
         <v>41</v>
@@ -13729,10 +14502,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -13816,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="AJ87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK87">
         <v>0</v>
@@ -13834,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>0</v>
@@ -13843,21 +14616,30 @@
         <v>0</v>
       </c>
       <c r="AS87">
+        <v>0</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+      <c r="AV87">
         <v>10</v>
       </c>
-      <c r="AT87">
-        <v>0</v>
-      </c>
-      <c r="AU87">
+      <c r="AW87">
+        <v>0</v>
+      </c>
+      <c r="AX87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:50">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B88">
-        <v>3001</v>
+        <v>2930</v>
       </c>
       <c r="C88">
         <v>34</v>
@@ -13968,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="AM88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN88">
         <v>0</v>
@@ -13977,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="AP88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>0</v>
@@ -13986,21 +14768,30 @@
         <v>0</v>
       </c>
       <c r="AS88">
+        <v>0</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
         <v>9</v>
       </c>
-      <c r="AT88">
-        <v>0</v>
-      </c>
-      <c r="AU88">
+      <c r="AW88">
+        <v>0</v>
+      </c>
+      <c r="AX88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" spans="1:50">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B89">
-        <v>2546</v>
+        <v>1946</v>
       </c>
       <c r="C89">
         <v>45</v>
@@ -14075,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB89">
         <v>0</v>
@@ -14084,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="AD89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE89">
         <v>0</v>
@@ -14102,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="AJ89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK89">
         <v>0</v>
@@ -14111,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="AM89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN89">
         <v>0</v>
@@ -14120,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ89">
         <v>0</v>
@@ -14129,21 +14920,30 @@
         <v>0</v>
       </c>
       <c r="AS89">
+        <v>1</v>
+      </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AV89">
         <v>9</v>
       </c>
-      <c r="AT89">
-        <v>0</v>
-      </c>
-      <c r="AU89">
+      <c r="AW89">
+        <v>0</v>
+      </c>
+      <c r="AX89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:50">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B90">
-        <v>1713</v>
+        <v>1817</v>
       </c>
       <c r="C90">
         <v>37</v>
@@ -14245,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="AJ90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK90">
         <v>0</v>
@@ -14254,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="AM90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN90">
         <v>0</v>
@@ -14272,21 +15072,30 @@
         <v>0</v>
       </c>
       <c r="AS90">
+        <v>0</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
+      <c r="AV90">
         <v>8</v>
       </c>
-      <c r="AT90">
-        <v>0</v>
-      </c>
-      <c r="AU90">
+      <c r="AW90">
+        <v>0</v>
+      </c>
+      <c r="AX90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" spans="1:50">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B91">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="C91">
         <v>19</v>
@@ -14361,7 +15170,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB91">
         <v>0</v>
@@ -14370,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="AD91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE91">
         <v>0</v>
@@ -14415,21 +15224,30 @@
         <v>0</v>
       </c>
       <c r="AS91">
+        <v>0</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+      <c r="AV91">
         <v>5</v>
       </c>
-      <c r="AT91">
-        <v>0</v>
-      </c>
-      <c r="AU91">
+      <c r="AW91">
+        <v>0</v>
+      </c>
+      <c r="AX91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" spans="1:50">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B92">
-        <v>10139</v>
+        <v>9071</v>
       </c>
       <c r="C92">
         <v>26</v>
@@ -14531,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="AJ92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK92">
         <v>0</v>
@@ -14540,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="AM92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN92">
         <v>0</v>
@@ -14549,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ92">
         <v>0</v>
@@ -14558,66 +15376,75 @@
         <v>0</v>
       </c>
       <c r="AS92">
+        <v>1</v>
+      </c>
+      <c r="AT92">
+        <v>0</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
         <v>10</v>
       </c>
-      <c r="AT92">
-        <v>0</v>
-      </c>
-      <c r="AU92">
+      <c r="AW92">
+        <v>0</v>
+      </c>
+      <c r="AX92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" spans="1:50">
       <c r="A93" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B93">
-        <v>3730</v>
+        <v>6607</v>
       </c>
       <c r="C93">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
         <v>5</v>
       </c>
-      <c r="E93">
-        <v>13</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>5</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>4</v>
-      </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -14629,22 +15456,22 @@
         <v>0</v>
       </c>
       <c r="U93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93">
         <v>0</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y93">
         <v>0</v>
       </c>
       <c r="Z93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA93">
         <v>0</v>
@@ -14680,10 +15507,10 @@
         <v>0</v>
       </c>
       <c r="AL93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN93">
         <v>0</v>
@@ -14698,24 +15525,33 @@
         <v>0</v>
       </c>
       <c r="AR93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU93">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="AV93">
+        <v>12</v>
+      </c>
+      <c r="AW93">
+        <v>0</v>
+      </c>
+      <c r="AX93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" spans="1:50">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B94">
-        <v>1878</v>
+        <v>1998</v>
       </c>
       <c r="C94">
         <v>8</v>
@@ -14844,21 +15680,30 @@
         <v>0</v>
       </c>
       <c r="AS94">
+        <v>0</v>
+      </c>
+      <c r="AT94">
+        <v>0</v>
+      </c>
+      <c r="AU94">
+        <v>0</v>
+      </c>
+      <c r="AV94">
         <v>6</v>
       </c>
-      <c r="AT94">
-        <v>0</v>
-      </c>
-      <c r="AU94">
+      <c r="AW94">
+        <v>0</v>
+      </c>
+      <c r="AX94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:50">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B95">
-        <v>11339</v>
+        <v>8382</v>
       </c>
       <c r="C95">
         <v>138</v>
@@ -14987,21 +15832,30 @@
         <v>0</v>
       </c>
       <c r="AS95">
+        <v>0</v>
+      </c>
+      <c r="AT95">
+        <v>0</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AV95">
         <v>12</v>
       </c>
-      <c r="AT95">
-        <v>0</v>
-      </c>
-      <c r="AU95">
+      <c r="AW95">
+        <v>0</v>
+      </c>
+      <c r="AX95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" spans="1:50">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B96">
-        <v>3380</v>
+        <v>4183</v>
       </c>
       <c r="C96">
         <v>25</v>
@@ -15121,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ96">
         <v>0</v>
@@ -15130,21 +15984,30 @@
         <v>0</v>
       </c>
       <c r="AS96">
+        <v>1</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
+      <c r="AU96">
+        <v>0</v>
+      </c>
+      <c r="AV96">
         <v>18</v>
       </c>
-      <c r="AT96">
-        <v>0</v>
-      </c>
-      <c r="AU96">
+      <c r="AW96">
+        <v>0</v>
+      </c>
+      <c r="AX96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" spans="1:50">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B97">
-        <v>5097</v>
+        <v>5722</v>
       </c>
       <c r="C97">
         <v>75</v>
@@ -15273,21 +16136,30 @@
         <v>0</v>
       </c>
       <c r="AS97">
+        <v>0</v>
+      </c>
+      <c r="AT97">
+        <v>0</v>
+      </c>
+      <c r="AU97">
+        <v>0</v>
+      </c>
+      <c r="AV97">
         <v>15</v>
       </c>
-      <c r="AT97">
-        <v>0</v>
-      </c>
-      <c r="AU97">
+      <c r="AW97">
+        <v>0</v>
+      </c>
+      <c r="AX97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" spans="1:50">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B98">
-        <v>8451</v>
+        <v>9089</v>
       </c>
       <c r="C98">
         <v>203</v>
@@ -15416,21 +16288,30 @@
         <v>0</v>
       </c>
       <c r="AS98">
+        <v>0</v>
+      </c>
+      <c r="AT98">
+        <v>0</v>
+      </c>
+      <c r="AU98">
+        <v>0</v>
+      </c>
+      <c r="AV98">
         <v>10</v>
       </c>
-      <c r="AT98">
-        <v>0</v>
-      </c>
-      <c r="AU98">
+      <c r="AW98">
+        <v>0</v>
+      </c>
+      <c r="AX98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:50">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B99">
-        <v>1579</v>
+        <v>1491</v>
       </c>
       <c r="C99">
         <v>8</v>
@@ -15559,30 +16440,39 @@
         <v>0</v>
       </c>
       <c r="AS99">
+        <v>0</v>
+      </c>
+      <c r="AT99">
+        <v>0</v>
+      </c>
+      <c r="AU99">
+        <v>0</v>
+      </c>
+      <c r="AV99">
         <v>3</v>
       </c>
-      <c r="AT99">
-        <v>0</v>
-      </c>
-      <c r="AU99">
+      <c r="AW99">
+        <v>0</v>
+      </c>
+      <c r="AX99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" spans="1:50">
       <c r="A100" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B100">
-        <v>2505</v>
+        <v>2982</v>
       </c>
       <c r="C100">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D100">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -15591,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -15603,13 +16493,13 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -15696,27 +16586,36 @@
         <v>0</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR100">
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU100">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AV100">
+        <v>7</v>
+      </c>
+      <c r="AW100">
+        <v>0</v>
+      </c>
+      <c r="AX100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:50">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B101">
-        <v>3701</v>
+        <v>2443</v>
       </c>
       <c r="C101">
         <v>13</v>
@@ -15845,871 +16744,46 @@
         <v>0</v>
       </c>
       <c r="AS101">
+        <v>0</v>
+      </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AV101">
         <v>5</v>
       </c>
-      <c r="AT101">
-        <v>0</v>
-      </c>
-      <c r="AU101">
+      <c r="AW101">
+        <v>0</v>
+      </c>
+      <c r="AX101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102">
         <f>MEDIAN(B2:B101)</f>
-        <v>3718</v>
+        <v>3642</v>
       </c>
       <c r="C102">
         <f>MEDIAN(C2:C101)</f>
-        <v>34.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103">
         <f>AVERAGE(B2:B101)</f>
-        <v>6906.23</v>
+        <v>5427.73</v>
       </c>
       <c r="C103">
         <f>AVERAGE(C2:C101)</f>
-        <v>47.51</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104">
-        <f>MAX(B2:B101)</f>
-        <v>80965</v>
+        <v>47.48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="14.425" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7">
-        <v>3664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12">
-        <v>7236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13">
-        <v>3884</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14">
-        <v>10832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15">
-        <v>4423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16">
-        <v>12172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17">
-        <v>5567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18">
-        <v>11092</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19">
-        <v>3706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20">
-        <v>5753</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21">
-        <v>7884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22">
-        <v>8107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23">
-        <v>4759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24">
-        <v>26013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25">
-        <v>9082</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26">
-        <v>7867</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27">
-        <v>26582</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29">
-        <v>6734</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30">
-        <v>17236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31">
-        <v>12225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36">
-        <v>6462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39">
-        <v>35889</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42">
-        <v>9107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B43">
-        <v>5984</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44">
-        <v>17466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45">
-        <v>15773</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46">
-        <v>11146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48">
-        <v>6109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49">
-        <v>18703</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50">
-        <v>7047</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51">
-        <v>5778</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54">
-        <v>8697</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59">
-        <v>6037</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60">
-        <v>4428</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62">
-        <v>22527</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63">
-        <v>5967</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64">
-        <v>3257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65">
-        <v>3389</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66">
-        <v>53014</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67">
-        <v>80965</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68">
-        <v>9420</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69">
-        <v>9034</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70">
-        <v>5323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71">
-        <v>8507</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>149</v>
-      </c>
-      <c r="B80">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>149</v>
-      </c>
-      <c r="B81">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>149</v>
-      </c>
-      <c r="B83">
-        <v>5641</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84">
-        <v>5395</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87">
-        <v>5659</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>149</v>
-      </c>
-      <c r="B88">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>149</v>
-      </c>
-      <c r="B89">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>149</v>
-      </c>
-      <c r="B90">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92">
-        <v>10139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>149</v>
-      </c>
-      <c r="B93">
-        <v>3730</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>149</v>
-      </c>
-      <c r="B95">
-        <v>11339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>149</v>
-      </c>
-      <c r="B97">
-        <v>5097</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98">
-        <v>8451</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>149</v>
-      </c>
-      <c r="B99">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>149</v>
-      </c>
-      <c r="B100">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>149</v>
-      </c>
-      <c r="B101">
-        <v>3701</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>